--- a/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 24,52</t>
+          <t>-24,14; 27,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 15,32</t>
+          <t>-19,11; 19,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 15,71</t>
+          <t>-14,64; 16,83</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 87,12</t>
+          <t>-49,6; 123,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 54,64</t>
+          <t>-44,67; 69,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 50,64</t>
+          <t>-34,19; 58,55</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 9,92</t>
+          <t>-11,17; 13,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,27</t>
+          <t>-10,36; 10,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,38</t>
+          <t>-7,83; 8,22</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 29,73</t>
+          <t>-25,24; 43,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 23,41</t>
+          <t>-23,0; 28,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 18,03</t>
+          <t>-18,32; 23,89</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 10,9</t>
+          <t>-10,9; 14,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 7,02</t>
+          <t>-12,64; 8,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 6,75</t>
+          <t>-9,29; 7,2</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>-2,37%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 25,09</t>
+          <t>-22,85; 41,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 21,67</t>
+          <t>-29,7; 24,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 17,85</t>
+          <t>-21,58; 20,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 21,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 15,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 12,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 9,08</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 6,26</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 5,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; 26,22</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-16,9; 18,26</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-12,34; 15,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.967352991608486</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.459880672721081</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.638813751453029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-24,14; 27,55</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,11; 19,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,64; 16,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.32938874371448</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.02412345821208</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.56365139917827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,01%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.99753812692969</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.52486260562391</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.15395479912214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-49,6; 123,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,67; 69,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-34,19; 58,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1151394398667218</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.04055703781471728</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.07480342364623728</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4387029484674254</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4388841653291272</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3035644901773634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,17; 13,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,36; 10,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 8,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.330358876782869</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.7151097175972</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6800874241521996</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.1264704180094278</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5991806476643269</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2624855724308539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-25,24; 43,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-23,0; 28,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-18,32; 23,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.5937097426519</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.07524125339791</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.65136093633527</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.71809519090879</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.22033310509067</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.537549366189692</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 14,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 8,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,29; 7,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.003286320237169122</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01505450983128949</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.006702258417241075</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,54%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,37%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2607941477689372</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2231426354379229</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1768614079084024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-22,85; 41,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-29,7; 24,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-21,58; 20,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.4210684828555875</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3276176713493146</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2524964759505467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.257724256982268</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.085759175136447</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.105973702973573</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.22549960434976</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.09932666198137</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.16806861396295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.62829922943641</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.761373443839918</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.387149103999531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.02990459905859044</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.02941109473463983</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.0282180683008523</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2800528891077629</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.285642187447064</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2345246106390818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 9,08</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 6,26</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 5,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.3492318836614483</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2697950714687736</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2124919719034804</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,24%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.02118777185836085</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05582881396052342</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.04232168967025496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-18,5; 26,22</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-16,9; 18,26</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 15,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.298807475591998</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.501982697954569</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.897523625659966</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.865587173289395</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.950887427045055</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.696105978784487</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.0005393229637563116</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.001465725388542204</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.001095107483185713</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1928735474156583</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1572155343231872</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1191783966460686</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2474598447092087</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2038706982600126</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1591151540550685</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
